--- a/inst/extdata/disease_dictionary.xlsx
+++ b/inst/extdata/disease_dictionary.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\WHO_AFRO\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moussanaf\OneDrive - World Health Organization\Documents\GitHub\epichecks\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643655FF-843B-45A8-8F35-251BA7882AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$B$125</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="220">
   <si>
     <t>Acute Watery Diarrhea</t>
   </si>
@@ -493,12 +508,198 @@
   </si>
   <si>
     <t>Whooping Cough</t>
+  </si>
+  <si>
+    <t>YF</t>
+  </si>
+  <si>
+    <t>Yellow fever</t>
+  </si>
+  <si>
+    <t>Acute and chronic viral hepatitis</t>
+  </si>
+  <si>
+    <t>Acute Flaccid Paralysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute Heam Fever </t>
+  </si>
+  <si>
+    <t>Acute Hemorrhagic Fever</t>
+  </si>
+  <si>
+    <t>Acute hemorrhagic fever syndrome</t>
+  </si>
+  <si>
+    <t>Acute viral hepatitis</t>
+  </si>
+  <si>
+    <t>Adverse Drug Reactions (ADR)</t>
+  </si>
+  <si>
+    <t>Adverse events following immunization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthrax </t>
+  </si>
+  <si>
+    <t>Brucellosis</t>
+  </si>
+  <si>
+    <t>Chikenpox</t>
+  </si>
+  <si>
+    <t>Crimean congo hemorrhagic fever</t>
+  </si>
+  <si>
+    <t>DECES MATERNEL</t>
+  </si>
+  <si>
+    <t>Deces perinatal</t>
+  </si>
+  <si>
+    <t>Dengue fever</t>
+  </si>
+  <si>
+    <t>Diarrhea</t>
+  </si>
+  <si>
+    <t>Diarrhea with Blood</t>
+  </si>
+  <si>
+    <t>Diarrhoea with Blood</t>
+  </si>
+  <si>
+    <t>Drancucunliasis</t>
+  </si>
+  <si>
+    <t>Ebola virus disease</t>
+  </si>
+  <si>
+    <t>Flu</t>
+  </si>
+  <si>
+    <t>Flu Syndrome</t>
+  </si>
+  <si>
+    <t>Flu Syndromes</t>
+  </si>
+  <si>
+    <t>Haemorrhagic fever</t>
+  </si>
+  <si>
+    <t>Hemorrhagic fever</t>
+  </si>
+  <si>
+    <t>Human Exposure to Rabies</t>
+  </si>
+  <si>
+    <t>ILI</t>
+  </si>
+  <si>
+    <t>Kala azar</t>
+  </si>
+  <si>
+    <t>Visceral leishmaniasis</t>
+  </si>
+  <si>
+    <t>Maternal</t>
+  </si>
+  <si>
+    <t>Maternal Death</t>
+  </si>
+  <si>
+    <t>MDR Tuberculosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meningitis </t>
+  </si>
+  <si>
+    <t>Meningococal Meningitis</t>
+  </si>
+  <si>
+    <t>Moderate acute malnutrition</t>
+  </si>
+  <si>
+    <t>Monkey Pox</t>
+  </si>
+  <si>
+    <t>Neonatal Death</t>
+  </si>
+  <si>
+    <t>Nodding Syndrome</t>
+  </si>
+  <si>
+    <t>Noma</t>
+  </si>
+  <si>
+    <t>Non Bloody Diarrhoea</t>
+  </si>
+  <si>
+    <t>Other deaths</t>
+  </si>
+  <si>
+    <t>Perinatal</t>
+  </si>
+  <si>
+    <t>Poliomyelitis (Acute flaccid paralysis)</t>
+  </si>
+  <si>
+    <t>ROTAVIRUS</t>
+  </si>
+  <si>
+    <t>Rotavirus</t>
+  </si>
+  <si>
+    <t>SARS</t>
+  </si>
+  <si>
+    <t>Seasonal flu</t>
+  </si>
+  <si>
+    <t>Severe acute malnutrition</t>
+  </si>
+  <si>
+    <t>Severe Acute Respiratory Illness (SARI)</t>
+  </si>
+  <si>
+    <t>Severe acute respiratory infections (SARIs)</t>
+  </si>
+  <si>
+    <t>Shigellosis</t>
+  </si>
+  <si>
+    <t>SRAS</t>
+  </si>
+  <si>
+    <t>Trachoma</t>
+  </si>
+  <si>
+    <t>Typhus</t>
+  </si>
+  <si>
+    <t>Unexlpained Death</t>
+  </si>
+  <si>
+    <t>Unexplained Clus Health Events</t>
+  </si>
+  <si>
+    <t>Varicella</t>
+  </si>
+  <si>
+    <t>Viral Conjunctivitis</t>
+  </si>
+  <si>
+    <t>Viral haemorrhagic fever</t>
+  </si>
+  <si>
+    <t>Zika virus disease</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -544,6 +745,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -841,11 +1045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,8 +2009,8 @@
       <c r="A117" t="s">
         <v>104</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>126</v>
+      <c r="B117" t="s">
+        <v>104</v>
       </c>
       <c r="C117" s="3"/>
     </row>
@@ -1862,7 +2066,528 @@
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>161</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>167</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>172</v>
+      </c>
+      <c r="B139" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>173</v>
+      </c>
+      <c r="B140" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>176</v>
+      </c>
+      <c r="B143" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>177</v>
+      </c>
+      <c r="B144" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>178</v>
+      </c>
+      <c r="B146" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>179</v>
+      </c>
+      <c r="B147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>180</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>181</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>182</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>183</v>
+      </c>
+      <c r="B151" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>184</v>
+      </c>
+      <c r="B152" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>185</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>186</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>124</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>187</v>
+      </c>
+      <c r="B156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>189</v>
+      </c>
+      <c r="B157" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>190</v>
+      </c>
+      <c r="B158" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>191</v>
+      </c>
+      <c r="B159" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>192</v>
+      </c>
+      <c r="B160" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>193</v>
+      </c>
+      <c r="B161" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>194</v>
+      </c>
+      <c r="B162" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>195</v>
+      </c>
+      <c r="B163" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>196</v>
+      </c>
+      <c r="B164" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>197</v>
+      </c>
+      <c r="B165" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>198</v>
+      </c>
+      <c r="B166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>199</v>
+      </c>
+      <c r="B167" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>201</v>
+      </c>
+      <c r="B169" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>132</v>
+      </c>
+      <c r="B170" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>202</v>
+      </c>
+      <c r="B171" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>203</v>
+      </c>
+      <c r="B172" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>205</v>
+      </c>
+      <c r="B173" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>207</v>
+      </c>
+      <c r="B175" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>208</v>
+      </c>
+      <c r="B176" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>209</v>
+      </c>
+      <c r="B177" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>137</v>
+      </c>
+      <c r="B178" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>210</v>
+      </c>
+      <c r="B179" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>211</v>
+      </c>
+      <c r="B180" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>212</v>
+      </c>
+      <c r="B181" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>213</v>
+      </c>
+      <c r="B182" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>214</v>
+      </c>
+      <c r="B183" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>215</v>
+      </c>
+      <c r="B184" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>216</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>217</v>
+      </c>
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>218</v>
+      </c>
+      <c r="B187" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>219</v>
+      </c>
+      <c r="B188" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B125" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/inst/extdata/disease_dictionary.xlsx
+++ b/inst/extdata/disease_dictionary.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moussanaf\OneDrive - World Health Organization\Documents\GitHub\epichecks\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643655FF-843B-45A8-8F35-251BA7882AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6CAE15-0204-4B19-8C3E-CEBB28737298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$B$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$B$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="219">
   <si>
     <t>Acute Watery Diarrhea</t>
   </si>
@@ -475,9 +475,6 @@
   </si>
   <si>
     <t>Ebola Virus Disease</t>
-  </si>
-  <si>
-    <t>Animal bites</t>
   </si>
   <si>
     <t>Guinea Worm</t>
@@ -1048,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126:B188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,10 +1077,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1336,7 +1333,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,7 +1357,7 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,7 +1391,7 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,7 +1447,7 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1564,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,7 +1617,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1689,7 @@
         <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,7 +1844,7 @@
         <v>86</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1912,7 +1909,7 @@
         <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1985,7 +1982,7 @@
         <v>101</v>
       </c>
       <c r="B114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,7 +2034,7 @@
         <v>105</v>
       </c>
       <c r="B120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2068,7 +2065,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
         <v>107</v>
@@ -2076,7 +2073,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B125" t="s">
         <v>107</v>
@@ -2084,7 +2081,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B126" t="s">
         <v>125</v>
@@ -2092,7 +2089,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B127" t="s">
         <v>131</v>
@@ -2100,7 +2097,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
@@ -2108,7 +2105,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B129" t="s">
         <v>126</v>
@@ -2116,7 +2113,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B130" t="s">
         <v>126</v>
@@ -2124,7 +2121,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B131" t="s">
         <v>125</v>
@@ -2132,31 +2129,31 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -2164,15 +2161,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B137" t="s">
         <v>13</v>
@@ -2180,7 +2177,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B138" t="s">
         <v>118</v>
@@ -2188,7 +2185,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -2196,7 +2193,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B140" t="s">
         <v>132</v>
@@ -2204,7 +2201,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B141" t="s">
         <v>120</v>
@@ -2212,7 +2209,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B142" t="s">
         <v>122</v>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B143" t="s">
         <v>121</v>
@@ -2228,7 +2225,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B144" t="s">
         <v>121</v>
@@ -2244,15 +2241,15 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
@@ -2260,7 +2257,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>124</v>
@@ -2268,7 +2265,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>124</v>
@@ -2276,7 +2273,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>124</v>
@@ -2284,7 +2281,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B151" t="s">
         <v>126</v>
@@ -2292,7 +2289,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B152" t="s">
         <v>126</v>
@@ -2300,7 +2297,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B153" t="s">
         <v>25</v>
@@ -2308,7 +2305,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>124</v>
@@ -2324,15 +2321,15 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>186</v>
+      </c>
+      <c r="B156" t="s">
         <v>187</v>
-      </c>
-      <c r="B156" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B157" t="s">
         <v>63</v>
@@ -2340,7 +2337,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B158" t="s">
         <v>63</v>
@@ -2348,7 +2345,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B159" t="s">
         <v>98</v>
@@ -2356,7 +2353,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B160" t="s">
         <v>115</v>
@@ -2364,7 +2361,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B161" t="s">
         <v>115</v>
@@ -2372,7 +2369,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B162" t="s">
         <v>68</v>
@@ -2380,7 +2377,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B163" t="s">
         <v>70</v>
@@ -2388,7 +2385,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B164" t="s">
         <v>132</v>
@@ -2396,23 +2393,23 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B167" t="s">
         <v>122</v>
@@ -2420,15 +2417,15 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B168" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B169" t="s">
         <v>132</v>
@@ -2444,7 +2441,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B171" t="s">
         <v>131</v>
@@ -2452,15 +2449,15 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>202</v>
+      </c>
+      <c r="B172" t="s">
         <v>203</v>
-      </c>
-      <c r="B172" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B173" t="s">
         <v>137</v>
@@ -2468,15 +2465,15 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B174" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B175" t="s">
         <v>89</v>
@@ -2484,7 +2481,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B176" t="s">
         <v>136</v>
@@ -2492,7 +2489,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B177" t="s">
         <v>136</v>
@@ -2508,7 +2505,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B179" t="s">
         <v>121</v>
@@ -2516,7 +2513,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B180" t="s">
         <v>137</v>
@@ -2524,31 +2521,31 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B181" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B182" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B183" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B184" t="s">
         <v>102</v>
@@ -2556,7 +2553,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B185" t="s">
         <v>13</v>
@@ -2564,7 +2561,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B186" t="s">
         <v>18</v>
@@ -2572,7 +2569,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B187" t="s">
         <v>104</v>
@@ -2580,14 +2577,14 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B188" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B125" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B188" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/inst/extdata/disease_dictionary.xlsx
+++ b/inst/extdata/disease_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moussanaf\OneDrive - World Health Organization\Documents\GitHub\epichecks\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6CAE15-0204-4B19-8C3E-CEBB28737298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A0E3AF-C55C-4EFB-9E23-30DC6FEF57B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$B$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$B$193</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="221">
   <si>
     <t>Acute Watery Diarrhea</t>
   </si>
@@ -691,6 +691,12 @@
   </si>
   <si>
     <t>Zika virus disease</t>
+  </si>
+  <si>
+    <t>Diarrhoea with blood</t>
+  </si>
+  <si>
+    <t>Diarrhea with blood</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,8 +2589,47 @@
         <v>141</v>
       </c>
     </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>219</v>
+      </c>
+      <c r="B189" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>209</v>
+      </c>
+      <c r="B190" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>220</v>
+      </c>
+      <c r="B191" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>28</v>
+      </c>
+      <c r="B192" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>90</v>
+      </c>
+      <c r="B193" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B188" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/inst/extdata/disease_dictionary.xlsx
+++ b/inst/extdata/disease_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moussanaf\OneDrive - World Health Organization\Documents\GitHub\epichecks\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A0E3AF-C55C-4EFB-9E23-30DC6FEF57B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7240575-F19B-4B90-8867-BC32DEA4D0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="222">
   <si>
     <t>Acute Watery Diarrhea</t>
   </si>
@@ -697,6 +697,9 @@
   </si>
   <si>
     <t>Diarrhea with blood</t>
+  </si>
+  <si>
+    <t>Rabies Exposure</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,7 +2309,7 @@
         <v>184</v>
       </c>
       <c r="B153" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2627,6 +2630,14 @@
       </c>
       <c r="B193" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>221</v>
+      </c>
+      <c r="B194" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
